--- a/data/134/IFO/old/ifo Employment Barometer for Germany.xlsx
+++ b/data/134/IFO/old/ifo Employment Barometer for Germany.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Beschäftigungsklima\BESCHÄFTIGUNGSKLIMA\BB_2021\September_2021\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Beschäftigungsklima\BESCHÄFTIGUNGSKLIMA\BB_2021\Dezember_2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -527,8 +527,8 @@
   <dimension ref="A1:F249"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="9" topLeftCell="A235" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E251" sqref="E251"/>
+      <pane ySplit="9" topLeftCell="A220" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C249" sqref="C249:F249"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -639,7 +639,7 @@
         <v>-45.4</v>
       </c>
       <c r="E10" s="15">
-        <v>-21.62</v>
+        <v>-21.6</v>
       </c>
       <c r="F10" s="15">
         <v>2.03579</v>
@@ -659,7 +659,7 @@
         <v>-37.21</v>
       </c>
       <c r="E11" s="15">
-        <v>-22.69</v>
+        <v>-22.68</v>
       </c>
       <c r="F11" s="15">
         <v>1.48963</v>
@@ -679,7 +679,7 @@
         <v>-34.39</v>
       </c>
       <c r="E12" s="15">
-        <v>-19.77</v>
+        <v>-19.760000000000002</v>
       </c>
       <c r="F12" s="15">
         <v>1.88289</v>
@@ -699,7 +699,7 @@
         <v>-38.29</v>
       </c>
       <c r="E13" s="15">
-        <v>-22.83</v>
+        <v>-22.76</v>
       </c>
       <c r="F13" s="15">
         <v>0.14252000000000001</v>
@@ -719,7 +719,7 @@
         <v>-36.770000000000003</v>
       </c>
       <c r="E14" s="15">
-        <v>-22.56</v>
+        <v>-22.59</v>
       </c>
       <c r="F14" s="15">
         <v>0.83250999999999997</v>
@@ -739,7 +739,7 @@
         <v>-35.590000000000003</v>
       </c>
       <c r="E15" s="15">
-        <v>-25.46</v>
+        <v>-25.63</v>
       </c>
       <c r="F15" s="15">
         <v>-3.8191799999999998</v>
@@ -759,7 +759,7 @@
         <v>-37.22</v>
       </c>
       <c r="E16" s="15">
-        <v>-26.91</v>
+        <v>-26.89</v>
       </c>
       <c r="F16" s="15">
         <v>-7.0044300000000002</v>
@@ -779,7 +779,7 @@
         <v>-35.909999999999997</v>
       </c>
       <c r="E17" s="15">
-        <v>-27.02</v>
+        <v>-27</v>
       </c>
       <c r="F17" s="15">
         <v>-8.28355</v>
@@ -799,7 +799,7 @@
         <v>-32.700000000000003</v>
       </c>
       <c r="E18" s="15">
-        <v>-28.13</v>
+        <v>-28.11</v>
       </c>
       <c r="F18" s="15">
         <v>-2.6791</v>
@@ -819,7 +819,7 @@
         <v>-36.53</v>
       </c>
       <c r="E19" s="15">
-        <v>-28.91</v>
+        <v>-28.89</v>
       </c>
       <c r="F19" s="15">
         <v>-9.79861</v>
@@ -839,7 +839,7 @@
         <v>-40.82</v>
       </c>
       <c r="E20" s="15">
-        <v>-30.54</v>
+        <v>-30.52</v>
       </c>
       <c r="F20" s="15">
         <v>-4.7623899999999999</v>
@@ -859,7 +859,7 @@
         <v>-44.79</v>
       </c>
       <c r="E21" s="15">
-        <v>-34.58</v>
+        <v>-34.56</v>
       </c>
       <c r="F21" s="15">
         <v>-4.8138100000000001</v>
@@ -879,7 +879,7 @@
         <v>-46.18</v>
       </c>
       <c r="E22" s="15">
-        <v>-32.619999999999997</v>
+        <v>-32.6</v>
       </c>
       <c r="F22" s="15">
         <v>-3.01389</v>
@@ -899,7 +899,7 @@
         <v>-40.61</v>
       </c>
       <c r="E23" s="15">
-        <v>-32.69</v>
+        <v>-32.68</v>
       </c>
       <c r="F23" s="15">
         <v>-8.5595700000000008</v>
@@ -919,7 +919,7 @@
         <v>-39.76</v>
       </c>
       <c r="E24" s="15">
-        <v>-28.77</v>
+        <v>-28.76</v>
       </c>
       <c r="F24" s="15">
         <v>-5.6948699999999999</v>
@@ -939,7 +939,7 @@
         <v>-35.630000000000003</v>
       </c>
       <c r="E25" s="15">
-        <v>-26.83</v>
+        <v>-26.76</v>
       </c>
       <c r="F25" s="15">
         <v>-3.8388599999999999</v>
@@ -959,7 +959,7 @@
         <v>-36.409999999999997</v>
       </c>
       <c r="E26" s="15">
-        <v>-25.56</v>
+        <v>-25.59</v>
       </c>
       <c r="F26" s="15">
         <v>-11.172560000000001</v>
@@ -979,7 +979,7 @@
         <v>-36.700000000000003</v>
       </c>
       <c r="E27" s="15">
-        <v>-25.46</v>
+        <v>-25.63</v>
       </c>
       <c r="F27" s="15">
         <v>-8.8191799999999994</v>
@@ -990,7 +990,7 @@
         <v>37833</v>
       </c>
       <c r="B28" s="25">
-        <v>90.2</v>
+        <v>90.3</v>
       </c>
       <c r="C28" s="15">
         <v>-22.3</v>
@@ -999,7 +999,7 @@
         <v>-37.14</v>
       </c>
       <c r="E28" s="15">
-        <v>-26.91</v>
+        <v>-26.89</v>
       </c>
       <c r="F28" s="15">
         <v>-4.01058</v>
@@ -1019,7 +1019,7 @@
         <v>-35.31</v>
       </c>
       <c r="E29" s="15">
-        <v>-24.02</v>
+        <v>-24</v>
       </c>
       <c r="F29" s="15">
         <v>0.69843</v>
@@ -1039,7 +1039,7 @@
         <v>-33.799999999999997</v>
       </c>
       <c r="E30" s="15">
-        <v>-21.13</v>
+        <v>-21.11</v>
       </c>
       <c r="F30" s="15">
         <v>0.30882999999999999</v>
@@ -1059,7 +1059,7 @@
         <v>-37.6</v>
       </c>
       <c r="E31" s="15">
-        <v>-21.91</v>
+        <v>-21.89</v>
       </c>
       <c r="F31" s="15">
         <v>-1.8103800000000001</v>
@@ -1079,7 +1079,7 @@
         <v>-35.4</v>
       </c>
       <c r="E32" s="15">
-        <v>-18.54</v>
+        <v>-18.52</v>
       </c>
       <c r="F32" s="15">
         <v>0.17036000000000001</v>
@@ -1099,7 +1099,7 @@
         <v>-39.229999999999997</v>
       </c>
       <c r="E33" s="15">
-        <v>-18.579999999999998</v>
+        <v>-18.559999999999999</v>
       </c>
       <c r="F33" s="15">
         <v>-0.81401000000000001</v>
@@ -1119,7 +1119,7 @@
         <v>-33.35</v>
       </c>
       <c r="E34" s="15">
-        <v>-16.62</v>
+        <v>-16.600000000000001</v>
       </c>
       <c r="F34" s="15">
         <v>-6.3450300000000004</v>
@@ -1139,7 +1139,7 @@
         <v>-31.89</v>
       </c>
       <c r="E35" s="15">
-        <v>-16.690000000000001</v>
+        <v>-16.68</v>
       </c>
       <c r="F35" s="15">
         <v>-3.0143</v>
@@ -1159,7 +1159,7 @@
         <v>-33.01</v>
       </c>
       <c r="E36" s="15">
-        <v>-17.77</v>
+        <v>-17.760000000000002</v>
       </c>
       <c r="F36" s="15">
         <v>-5.8155099999999997</v>
@@ -1179,7 +1179,7 @@
         <v>-32.590000000000003</v>
       </c>
       <c r="E37" s="15">
-        <v>-16.829999999999998</v>
+        <v>-16.760000000000002</v>
       </c>
       <c r="F37" s="15">
         <v>-5.83141</v>
@@ -1190,7 +1190,7 @@
         <v>38138</v>
       </c>
       <c r="B38" s="25">
-        <v>93.1</v>
+        <v>93</v>
       </c>
       <c r="C38" s="15">
         <v>-15.29</v>
@@ -1199,7 +1199,7 @@
         <v>-35</v>
       </c>
       <c r="E38" s="15">
-        <v>-14.56</v>
+        <v>-14.59</v>
       </c>
       <c r="F38" s="15">
         <v>-0.18271999999999999</v>
@@ -1219,7 +1219,7 @@
         <v>-32.770000000000003</v>
       </c>
       <c r="E39" s="15">
-        <v>-17.46</v>
+        <v>-17.63</v>
       </c>
       <c r="F39" s="15">
         <v>-3.8252999999999999</v>
@@ -1230,7 +1230,7 @@
         <v>38199</v>
       </c>
       <c r="B40" s="25">
-        <v>92.1</v>
+        <v>92.2</v>
       </c>
       <c r="C40" s="15">
         <v>-15.32</v>
@@ -1239,7 +1239,7 @@
         <v>-34.07</v>
       </c>
       <c r="E40" s="15">
-        <v>-16.91</v>
+        <v>-16.89</v>
       </c>
       <c r="F40" s="15">
         <v>-2.9921199999999999</v>
@@ -1259,7 +1259,7 @@
         <v>-35.57</v>
       </c>
       <c r="E41" s="15">
-        <v>-17.02</v>
+        <v>-17</v>
       </c>
       <c r="F41" s="15">
         <v>-2.3075700000000001</v>
@@ -1279,7 +1279,7 @@
         <v>-38.57</v>
       </c>
       <c r="E42" s="15">
-        <v>-15.13</v>
+        <v>-15.11</v>
       </c>
       <c r="F42" s="15">
         <v>-2.6972</v>
@@ -1290,7 +1290,7 @@
         <v>38291</v>
       </c>
       <c r="B43" s="25">
-        <v>93.3</v>
+        <v>93.4</v>
       </c>
       <c r="C43" s="15">
         <v>-13.66</v>
@@ -1299,7 +1299,7 @@
         <v>-37.86</v>
       </c>
       <c r="E43" s="15">
-        <v>-16.91</v>
+        <v>-16.89</v>
       </c>
       <c r="F43" s="15">
         <v>1.1896199999999999</v>
@@ -1319,7 +1319,7 @@
         <v>-36.04</v>
       </c>
       <c r="E44" s="15">
-        <v>-17.54</v>
+        <v>-17.52</v>
       </c>
       <c r="F44" s="15">
         <v>0.18071000000000001</v>
@@ -1339,7 +1339,7 @@
         <v>-39.4</v>
       </c>
       <c r="E45" s="15">
-        <v>-14.58</v>
+        <v>-14.56</v>
       </c>
       <c r="F45" s="15">
         <v>-0.81394</v>
@@ -1350,7 +1350,7 @@
         <v>38383</v>
       </c>
       <c r="B46" s="25">
-        <v>92.4</v>
+        <v>92.5</v>
       </c>
       <c r="C46" s="15">
         <v>-15.62</v>
@@ -1359,10 +1359,10 @@
         <v>-36.11</v>
       </c>
       <c r="E46" s="15">
-        <v>-13.62</v>
+        <v>-13.6</v>
       </c>
       <c r="F46" s="15">
-        <v>-2.4300000000000002</v>
+        <v>-2.39</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
@@ -1370,7 +1370,7 @@
         <v>38411</v>
       </c>
       <c r="B47" s="25">
-        <v>93</v>
+        <v>93.1</v>
       </c>
       <c r="C47" s="15">
         <v>-15.57</v>
@@ -1379,10 +1379,10 @@
         <v>-36.090000000000003</v>
       </c>
       <c r="E47" s="15">
-        <v>-15.69</v>
+        <v>-15.68</v>
       </c>
       <c r="F47" s="15">
-        <v>0.34</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
@@ -1399,10 +1399,10 @@
         <v>-34.97</v>
       </c>
       <c r="E48" s="15">
-        <v>-16.77</v>
+        <v>-16.760000000000002</v>
       </c>
       <c r="F48" s="15">
-        <v>-1.93</v>
+        <v>-1.89</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
@@ -1419,10 +1419,10 @@
         <v>-29.99</v>
       </c>
       <c r="E49" s="15">
-        <v>-14.83</v>
+        <v>-14.76</v>
       </c>
       <c r="F49" s="15">
-        <v>-5.0599999999999996</v>
+        <v>-4.8099999999999996</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
@@ -1439,10 +1439,10 @@
         <v>-28.32</v>
       </c>
       <c r="E50" s="15">
-        <v>-14.56</v>
+        <v>-14.59</v>
       </c>
       <c r="F50" s="15">
-        <v>-0.78</v>
+        <v>-0.79</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
@@ -1450,7 +1450,7 @@
         <v>38533</v>
       </c>
       <c r="B51" s="25">
-        <v>92.4</v>
+        <v>92.2</v>
       </c>
       <c r="C51" s="15">
         <v>-15.54</v>
@@ -1459,10 +1459,10 @@
         <v>-28.8</v>
       </c>
       <c r="E51" s="15">
-        <v>-12.46</v>
+        <v>-12.63</v>
       </c>
       <c r="F51" s="15">
-        <v>-3.92</v>
+        <v>-4.4800000000000004</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
@@ -1479,10 +1479,10 @@
         <v>-28.18</v>
       </c>
       <c r="E52" s="15">
-        <v>-15.91</v>
+        <v>-15.89</v>
       </c>
       <c r="F52" s="15">
-        <v>0.31</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
@@ -1499,10 +1499,10 @@
         <v>-27.46</v>
       </c>
       <c r="E53" s="15">
-        <v>-14.02</v>
+        <v>-14</v>
       </c>
       <c r="F53" s="15">
-        <v>-6.07</v>
+        <v>-6.04</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
@@ -1519,10 +1519,10 @@
         <v>-22.85</v>
       </c>
       <c r="E54" s="15">
-        <v>-12.13</v>
+        <v>-12.11</v>
       </c>
       <c r="F54" s="15">
-        <v>-0.5</v>
+        <v>-0.47</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
@@ -1539,10 +1539,10 @@
         <v>-23.43</v>
       </c>
       <c r="E55" s="15">
-        <v>-10.91</v>
+        <v>-10.89</v>
       </c>
       <c r="F55" s="15">
-        <v>1.97</v>
+        <v>2.0099999999999998</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.2">
@@ -1559,10 +1559,10 @@
         <v>-25.32</v>
       </c>
       <c r="E56" s="15">
-        <v>-13.54</v>
+        <v>-13.52</v>
       </c>
       <c r="F56" s="15">
-        <v>0.65</v>
+        <v>0.68</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
@@ -1579,10 +1579,10 @@
         <v>-29.07</v>
       </c>
       <c r="E57" s="15">
-        <v>-10.58</v>
+        <v>-10.56</v>
       </c>
       <c r="F57" s="15">
-        <v>3.42</v>
+        <v>3.46</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
@@ -1599,10 +1599,10 @@
         <v>-21.28</v>
       </c>
       <c r="E58" s="15">
-        <v>-6.62</v>
+        <v>-6.6</v>
       </c>
       <c r="F58" s="15">
-        <v>6.57</v>
+        <v>6.61</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
@@ -1619,10 +1619,10 @@
         <v>-11.37</v>
       </c>
       <c r="E59" s="15">
-        <v>-3.69</v>
+        <v>-3.68</v>
       </c>
       <c r="F59" s="15">
-        <v>9.34</v>
+        <v>9.3800000000000008</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.2">
@@ -1639,10 +1639,10 @@
         <v>-9.7100000000000009</v>
       </c>
       <c r="E60" s="15">
-        <v>-7.77</v>
+        <v>-7.76</v>
       </c>
       <c r="F60" s="15">
-        <v>8.07</v>
+        <v>8.11</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.2">
@@ -1650,7 +1650,7 @@
         <v>38837</v>
       </c>
       <c r="B61" s="25">
-        <v>98.4</v>
+        <v>98.5</v>
       </c>
       <c r="C61" s="15">
         <v>-7.84</v>
@@ -1659,10 +1659,10 @@
         <v>-8.68</v>
       </c>
       <c r="E61" s="15">
-        <v>-3.83</v>
+        <v>-3.76</v>
       </c>
       <c r="F61" s="15">
-        <v>10.94</v>
+        <v>11.19</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.2">
@@ -1679,10 +1679,10 @@
         <v>-8.26</v>
       </c>
       <c r="E62" s="15">
-        <v>-7.56</v>
+        <v>-7.59</v>
       </c>
       <c r="F62" s="15">
-        <v>10.220000000000001</v>
+        <v>10.210000000000001</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.2">
@@ -1690,7 +1690,7 @@
         <v>38898</v>
       </c>
       <c r="B63" s="25">
-        <v>98.9</v>
+        <v>98.7</v>
       </c>
       <c r="C63" s="15">
         <v>-5.62</v>
@@ -1699,10 +1699,10 @@
         <v>-10.67</v>
       </c>
       <c r="E63" s="15">
-        <v>-4.46</v>
+        <v>-4.63</v>
       </c>
       <c r="F63" s="15">
-        <v>12.08</v>
+        <v>11.52</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.2">
@@ -1719,10 +1719,10 @@
         <v>-8.3699999999999992</v>
       </c>
       <c r="E64" s="15">
-        <v>-5.91</v>
+        <v>-5.89</v>
       </c>
       <c r="F64" s="15">
-        <v>8.31</v>
+        <v>8.34</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.2">
@@ -1730,7 +1730,7 @@
         <v>38960</v>
       </c>
       <c r="B65" s="25">
-        <v>97.2</v>
+        <v>97.3</v>
       </c>
       <c r="C65" s="15">
         <v>-3.73</v>
@@ -1739,10 +1739,10 @@
         <v>-7.25</v>
       </c>
       <c r="E65" s="15">
-        <v>-5.0199999999999996</v>
+        <v>-5</v>
       </c>
       <c r="F65" s="15">
-        <v>4.93</v>
+        <v>4.96</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.2">
@@ -1753,16 +1753,16 @@
         <v>98.9</v>
       </c>
       <c r="C66" s="15">
-        <v>-1.64</v>
+        <v>-1.65</v>
       </c>
       <c r="D66" s="16">
         <v>-8.0500000000000007</v>
       </c>
       <c r="E66" s="15">
-        <v>-2.13</v>
+        <v>-2.11</v>
       </c>
       <c r="F66" s="15">
-        <v>9.5</v>
+        <v>9.5299999999999994</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.2">
@@ -1779,10 +1779,10 @@
         <v>-8.2200000000000006</v>
       </c>
       <c r="E67" s="15">
-        <v>-0.91</v>
+        <v>-0.89</v>
       </c>
       <c r="F67" s="15">
-        <v>8.9700000000000006</v>
+        <v>9.01</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.2">
@@ -1790,7 +1790,7 @@
         <v>39051</v>
       </c>
       <c r="B68" s="25">
-        <v>100.2</v>
+        <v>100.3</v>
       </c>
       <c r="C68" s="15">
         <v>1.48</v>
@@ -1799,10 +1799,10 @@
         <v>-6.96</v>
       </c>
       <c r="E68" s="15">
-        <v>-0.54</v>
+        <v>-0.52</v>
       </c>
       <c r="F68" s="15">
-        <v>12.65</v>
+        <v>12.68</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.2">
@@ -1819,10 +1819,10 @@
         <v>-6.32</v>
       </c>
       <c r="E69" s="15">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="F69" s="15">
-        <v>10.42</v>
+        <v>10.46</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.2">
@@ -1839,10 +1839,10 @@
         <v>-5.33</v>
       </c>
       <c r="E70" s="15">
-        <v>3.38</v>
+        <v>3.4</v>
       </c>
       <c r="F70" s="15">
-        <v>10.57</v>
+        <v>10.61</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.2">
@@ -1850,7 +1850,7 @@
         <v>39141</v>
       </c>
       <c r="B71" s="25">
-        <v>100.5</v>
+        <v>100.6</v>
       </c>
       <c r="C71" s="15">
         <v>4.41</v>
@@ -1859,10 +1859,10 @@
         <v>-7.76</v>
       </c>
       <c r="E71" s="15">
-        <v>0.31</v>
+        <v>0.32</v>
       </c>
       <c r="F71" s="15">
-        <v>12.34</v>
+        <v>12.38</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.2">
@@ -1870,7 +1870,7 @@
         <v>39172</v>
       </c>
       <c r="B72" s="25">
-        <v>100.9</v>
+        <v>101</v>
       </c>
       <c r="C72" s="15">
         <v>6.42</v>
@@ -1879,10 +1879,10 @@
         <v>-8.52</v>
       </c>
       <c r="E72" s="15">
-        <v>0.23</v>
+        <v>0.24</v>
       </c>
       <c r="F72" s="15">
-        <v>13.07</v>
+        <v>13.11</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.2">
@@ -1890,7 +1890,7 @@
         <v>39202</v>
       </c>
       <c r="B73" s="25">
-        <v>99.7</v>
+        <v>99.8</v>
       </c>
       <c r="C73" s="15">
         <v>4.1399999999999997</v>
@@ -1899,10 +1899,10 @@
         <v>-10.94</v>
       </c>
       <c r="E73" s="15">
-        <v>3.17</v>
+        <v>3.24</v>
       </c>
       <c r="F73" s="15">
-        <v>8.94</v>
+        <v>9.19</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.2">
@@ -1919,10 +1919,10 @@
         <v>-9.9</v>
       </c>
       <c r="E74" s="15">
-        <v>2.44</v>
+        <v>2.41</v>
       </c>
       <c r="F74" s="15">
-        <v>10.220000000000001</v>
+        <v>10.210000000000001</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.2">
@@ -1930,7 +1930,7 @@
         <v>39263</v>
       </c>
       <c r="B75" s="25">
-        <v>100.9</v>
+        <v>100.7</v>
       </c>
       <c r="C75" s="15">
         <v>6.3</v>
@@ -1939,10 +1939,10 @@
         <v>-8.41</v>
       </c>
       <c r="E75" s="15">
-        <v>-0.46</v>
+        <v>-0.63</v>
       </c>
       <c r="F75" s="15">
-        <v>13.08</v>
+        <v>12.52</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.2">
@@ -1959,10 +1959,10 @@
         <v>-9.48</v>
       </c>
       <c r="E76" s="15">
-        <v>-0.91</v>
+        <v>-0.89</v>
       </c>
       <c r="F76" s="15">
-        <v>13.31</v>
+        <v>13.34</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.2">
@@ -1979,10 +1979,10 @@
         <v>-7.93</v>
       </c>
       <c r="E77" s="15">
-        <v>-1.02</v>
+        <v>-1</v>
       </c>
       <c r="F77" s="15">
-        <v>13.93</v>
+        <v>13.96</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.2">
@@ -1999,10 +1999,10 @@
         <v>-9.2200000000000006</v>
       </c>
       <c r="E78" s="15">
-        <v>-4.13</v>
+        <v>-4.1100000000000003</v>
       </c>
       <c r="F78" s="15">
-        <v>8.5</v>
+        <v>8.5299999999999994</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.2">
@@ -2019,10 +2019,10 @@
         <v>-7.2</v>
       </c>
       <c r="E79" s="15">
-        <v>-5.91</v>
+        <v>-5.89</v>
       </c>
       <c r="F79" s="15">
-        <v>10.97</v>
+        <v>11.01</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.2">
@@ -2039,10 +2039,10 @@
         <v>-9.01</v>
       </c>
       <c r="E80" s="15">
-        <v>-0.54</v>
+        <v>-0.52</v>
       </c>
       <c r="F80" s="15">
-        <v>12.65</v>
+        <v>12.68</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.2">
@@ -2059,10 +2059,10 @@
         <v>-8.65</v>
       </c>
       <c r="E81" s="15">
-        <v>-4.58</v>
+        <v>-4.5599999999999996</v>
       </c>
       <c r="F81" s="15">
-        <v>7.42</v>
+        <v>7.46</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.2">
@@ -2079,10 +2079,10 @@
         <v>-6.3</v>
       </c>
       <c r="E82" s="15">
-        <v>-6.62</v>
+        <v>-6.6</v>
       </c>
       <c r="F82" s="15">
-        <v>7.57</v>
+        <v>7.61</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.2">
@@ -2090,7 +2090,7 @@
         <v>39507</v>
       </c>
       <c r="B83" s="25">
-        <v>100</v>
+        <v>100.1</v>
       </c>
       <c r="C83" s="15">
         <v>3.39</v>
@@ -2099,10 +2099,10 @@
         <v>-10.58</v>
       </c>
       <c r="E83" s="15">
-        <v>-3.69</v>
+        <v>-3.68</v>
       </c>
       <c r="F83" s="15">
-        <v>12.34</v>
+        <v>12.38</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.2">
@@ -2119,10 +2119,10 @@
         <v>-10.25</v>
       </c>
       <c r="E84" s="15">
-        <v>-1.77</v>
+        <v>-1.76</v>
       </c>
       <c r="F84" s="15">
-        <v>9.07</v>
+        <v>9.11</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.2">
@@ -2130,7 +2130,7 @@
         <v>39568</v>
       </c>
       <c r="B85" s="25">
-        <v>99.1</v>
+        <v>99.2</v>
       </c>
       <c r="C85" s="15">
         <v>1.1599999999999999</v>
@@ -2139,10 +2139,10 @@
         <v>-13.95</v>
       </c>
       <c r="E85" s="15">
-        <v>-2.83</v>
+        <v>-2.76</v>
       </c>
       <c r="F85" s="15">
-        <v>9.94</v>
+        <v>10.19</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
@@ -2159,10 +2159,10 @@
         <v>-6.22</v>
       </c>
       <c r="E86" s="15">
-        <v>-0.56000000000000005</v>
+        <v>-0.59</v>
       </c>
       <c r="F86" s="15">
-        <v>8.2200000000000006</v>
+        <v>8.2100000000000009</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
@@ -2170,7 +2170,7 @@
         <v>39629</v>
       </c>
       <c r="B87" s="25">
-        <v>98.4</v>
+        <v>98.2</v>
       </c>
       <c r="C87" s="15">
         <v>-2.76</v>
@@ -2179,10 +2179,10 @@
         <v>-8.15</v>
       </c>
       <c r="E87" s="15">
-        <v>-2.46</v>
+        <v>-2.63</v>
       </c>
       <c r="F87" s="15">
-        <v>8.08</v>
+        <v>7.52</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.2">
@@ -2199,10 +2199,10 @@
         <v>-8.2799999999999994</v>
       </c>
       <c r="E88" s="15">
-        <v>-5.91</v>
+        <v>-5.89</v>
       </c>
       <c r="F88" s="15">
-        <v>5.31</v>
+        <v>5.34</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.2">
@@ -2219,10 +2219,10 @@
         <v>-11.7</v>
       </c>
       <c r="E89" s="15">
-        <v>-8.02</v>
+        <v>-8</v>
       </c>
       <c r="F89" s="15">
-        <v>3.93</v>
+        <v>3.96</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.2">
@@ -2239,10 +2239,10 @@
         <v>-11.54</v>
       </c>
       <c r="E90" s="15">
-        <v>-9.1300000000000008</v>
+        <v>-9.11</v>
       </c>
       <c r="F90" s="15">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.2">
@@ -2259,10 +2259,10 @@
         <v>-14.16</v>
       </c>
       <c r="E91" s="15">
-        <v>-6.91</v>
+        <v>-6.89</v>
       </c>
       <c r="F91" s="15">
-        <v>-2.0299999999999998</v>
+        <v>-1.99</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.2">
@@ -2279,10 +2279,10 @@
         <v>-14.06</v>
       </c>
       <c r="E92" s="15">
-        <v>-14.54</v>
+        <v>-14.52</v>
       </c>
       <c r="F92" s="15">
-        <v>-8.35</v>
+        <v>-8.32</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.2">
@@ -2299,10 +2299,10 @@
         <v>-17.11</v>
       </c>
       <c r="E93" s="15">
-        <v>-17.579999999999998</v>
+        <v>-17.559999999999999</v>
       </c>
       <c r="F93" s="15">
-        <v>-9.58</v>
+        <v>-9.5399999999999991</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.2">
@@ -2319,10 +2319,10 @@
         <v>-19.34</v>
       </c>
       <c r="E94" s="15">
-        <v>-16.62</v>
+        <v>-16.600000000000001</v>
       </c>
       <c r="F94" s="15">
-        <v>-9.43</v>
+        <v>-9.39</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.2">
@@ -2339,10 +2339,10 @@
         <v>-18.71</v>
       </c>
       <c r="E95" s="15">
-        <v>-17.690000000000001</v>
+        <v>-17.68</v>
       </c>
       <c r="F95" s="15">
-        <v>-11.66</v>
+        <v>-11.62</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.2">
@@ -2359,10 +2359,10 @@
         <v>-18.87</v>
       </c>
       <c r="E96" s="15">
-        <v>-19.77</v>
+        <v>-19.760000000000002</v>
       </c>
       <c r="F96" s="15">
-        <v>-10.93</v>
+        <v>-10.89</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.2">
@@ -2370,7 +2370,7 @@
         <v>39933</v>
       </c>
       <c r="B97" s="25">
-        <v>87.9</v>
+        <v>88</v>
       </c>
       <c r="C97" s="15">
         <v>-39.9</v>
@@ -2379,10 +2379,10 @@
         <v>-19.93</v>
       </c>
       <c r="E97" s="15">
-        <v>-19.829999999999998</v>
+        <v>-19.760000000000002</v>
       </c>
       <c r="F97" s="15">
-        <v>-9.06</v>
+        <v>-8.81</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.2">
@@ -2399,10 +2399,10 @@
         <v>-20.5</v>
       </c>
       <c r="E98" s="15">
-        <v>-18.559999999999999</v>
+        <v>-18.59</v>
       </c>
       <c r="F98" s="15">
-        <v>-6.78</v>
+        <v>-6.79</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.2">
@@ -2410,19 +2410,19 @@
         <v>39994</v>
       </c>
       <c r="B99" s="25">
-        <v>90</v>
+        <v>89.9</v>
       </c>
       <c r="C99" s="15">
         <v>-34.770000000000003</v>
       </c>
       <c r="D99" s="16">
-        <v>-17.829999999999998</v>
+        <v>-17.82</v>
       </c>
       <c r="E99" s="15">
-        <v>-14.46</v>
+        <v>-14.63</v>
       </c>
       <c r="F99" s="15">
-        <v>-4.92</v>
+        <v>-5.48</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.2">
@@ -2439,10 +2439,10 @@
         <v>-15.93</v>
       </c>
       <c r="E100" s="15">
-        <v>-15.91</v>
+        <v>-15.89</v>
       </c>
       <c r="F100" s="15">
-        <v>-3.69</v>
+        <v>-3.66</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.2">
@@ -2453,16 +2453,16 @@
         <v>91.9</v>
       </c>
       <c r="C101" s="15">
-        <v>-28.38</v>
+        <v>-28.39</v>
       </c>
       <c r="D101" s="16">
         <v>-9.32</v>
       </c>
       <c r="E101" s="15">
-        <v>-13.02</v>
+        <v>-13</v>
       </c>
       <c r="F101" s="15">
-        <v>-2.0699999999999998</v>
+        <v>-2.04</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.2">
@@ -2479,10 +2479,10 @@
         <v>-14.92</v>
       </c>
       <c r="E102" s="15">
-        <v>-11.13</v>
+        <v>-11.11</v>
       </c>
       <c r="F102" s="15">
-        <v>-4.5</v>
+        <v>-4.47</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.2">
@@ -2499,10 +2499,10 @@
         <v>-14.93</v>
       </c>
       <c r="E103" s="15">
-        <v>-7.91</v>
+        <v>-7.89</v>
       </c>
       <c r="F103" s="15">
-        <v>-5.03</v>
+        <v>-4.99</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.2">
@@ -2519,10 +2519,10 @@
         <v>-14.34</v>
       </c>
       <c r="E104" s="15">
-        <v>-8.5399999999999991</v>
+        <v>-8.52</v>
       </c>
       <c r="F104" s="15">
-        <v>-5.35</v>
+        <v>-5.32</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.2">
@@ -2539,10 +2539,10 @@
         <v>-13.48</v>
       </c>
       <c r="E105" s="15">
-        <v>-8.58</v>
+        <v>-8.56</v>
       </c>
       <c r="F105" s="15">
-        <v>-1.58</v>
+        <v>-1.54</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.2">
@@ -2559,10 +2559,10 @@
         <v>-16.55</v>
       </c>
       <c r="E106" s="15">
-        <v>-6.62</v>
+        <v>-6.6</v>
       </c>
       <c r="F106" s="15">
-        <v>-3.43</v>
+        <v>-3.39</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.2">
@@ -2579,10 +2579,10 @@
         <v>-15.24</v>
       </c>
       <c r="E107" s="15">
-        <v>-9.69</v>
+        <v>-9.68</v>
       </c>
       <c r="F107" s="15">
-        <v>-2.66</v>
+        <v>-2.62</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.2">
@@ -2599,10 +2599,10 @@
         <v>-13.41</v>
       </c>
       <c r="E108" s="15">
-        <v>-7.77</v>
+        <v>-7.76</v>
       </c>
       <c r="F108" s="15">
-        <v>3.07</v>
+        <v>3.11</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.2">
@@ -2610,7 +2610,7 @@
         <v>40298</v>
       </c>
       <c r="B109" s="25">
-        <v>97</v>
+        <v>97.1</v>
       </c>
       <c r="C109" s="15">
         <v>-7.02</v>
@@ -2619,10 +2619,10 @@
         <v>-9.9499999999999993</v>
       </c>
       <c r="E109" s="15">
-        <v>-1.83</v>
+        <v>-1.76</v>
       </c>
       <c r="F109" s="15">
-        <v>4.9400000000000004</v>
+        <v>5.19</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.2">
@@ -2639,10 +2639,10 @@
         <v>-8.67</v>
       </c>
       <c r="E110" s="15">
-        <v>-0.56000000000000005</v>
+        <v>-0.59</v>
       </c>
       <c r="F110" s="15">
-        <v>4.22</v>
+        <v>4.21</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.2">
@@ -2650,19 +2650,19 @@
         <v>40359</v>
       </c>
       <c r="B111" s="25">
-        <v>96.8</v>
+        <v>96.6</v>
       </c>
       <c r="C111" s="15">
-        <v>-3.66</v>
+        <v>-3.65</v>
       </c>
       <c r="D111" s="16">
         <v>-9.24</v>
       </c>
       <c r="E111" s="15">
-        <v>-0.46</v>
+        <v>-0.63</v>
       </c>
       <c r="F111" s="15">
-        <v>2.08</v>
+        <v>1.52</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.2">
@@ -2679,10 +2679,10 @@
         <v>-8.32</v>
       </c>
       <c r="E112" s="15">
-        <v>4.09</v>
+        <v>4.1100000000000003</v>
       </c>
       <c r="F112" s="15">
-        <v>4.3099999999999996</v>
+        <v>4.34</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.2">
@@ -2693,16 +2693,16 @@
         <v>99.7</v>
       </c>
       <c r="C113" s="15">
-        <v>2.8</v>
+        <v>2.79</v>
       </c>
       <c r="D113" s="16">
         <v>-8.02</v>
       </c>
       <c r="E113" s="15">
-        <v>3.98</v>
+        <v>4</v>
       </c>
       <c r="F113" s="15">
-        <v>8.93</v>
+        <v>8.9600000000000009</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.2">
@@ -2719,10 +2719,10 @@
         <v>-7.49</v>
       </c>
       <c r="E114" s="15">
-        <v>5.87</v>
+        <v>5.89</v>
       </c>
       <c r="F114" s="15">
-        <v>7.5</v>
+        <v>7.53</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.2">
@@ -2739,10 +2739,10 @@
         <v>-3.8</v>
       </c>
       <c r="E115" s="15">
-        <v>6.09</v>
+        <v>6.11</v>
       </c>
       <c r="F115" s="15">
-        <v>8.9700000000000006</v>
+        <v>9.01</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.2">
@@ -2753,16 +2753,16 @@
         <v>101.1</v>
       </c>
       <c r="C116" s="15">
-        <v>9.9</v>
+        <v>9.91</v>
       </c>
       <c r="D116" s="16">
         <v>-4.4000000000000004</v>
       </c>
       <c r="E116" s="15">
-        <v>7.46</v>
+        <v>7.48</v>
       </c>
       <c r="F116" s="15">
-        <v>9.65</v>
+        <v>9.68</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.2">
@@ -2773,16 +2773,16 @@
         <v>101.2</v>
       </c>
       <c r="C117" s="15">
-        <v>11.36</v>
+        <v>11.35</v>
       </c>
       <c r="D117" s="16">
         <v>-4.03</v>
       </c>
       <c r="E117" s="15">
-        <v>7.42</v>
+        <v>7.44</v>
       </c>
       <c r="F117" s="15">
-        <v>9.42</v>
+        <v>9.4600000000000009</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.2">
@@ -2793,16 +2793,16 @@
         <v>101.3</v>
       </c>
       <c r="C118" s="15">
-        <v>12.13</v>
+        <v>12.12</v>
       </c>
       <c r="D118" s="16">
         <v>-1.7</v>
       </c>
       <c r="E118" s="15">
-        <v>6.38</v>
+        <v>6.4</v>
       </c>
       <c r="F118" s="15">
-        <v>9.57</v>
+        <v>9.61</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.2">
@@ -2813,16 +2813,16 @@
         <v>101.6</v>
       </c>
       <c r="C119" s="15">
-        <v>13.1</v>
+        <v>13.09</v>
       </c>
       <c r="D119" s="16">
         <v>0.18</v>
       </c>
       <c r="E119" s="15">
-        <v>8.31</v>
+        <v>8.32</v>
       </c>
       <c r="F119" s="15">
-        <v>9.34</v>
+        <v>9.3800000000000008</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.2">
@@ -2839,10 +2839,10 @@
         <v>0.98</v>
       </c>
       <c r="E120" s="15">
-        <v>9.23</v>
+        <v>9.24</v>
       </c>
       <c r="F120" s="15">
-        <v>12.07</v>
+        <v>12.11</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.2">
@@ -2850,7 +2850,7 @@
         <v>40663</v>
       </c>
       <c r="B121" s="25">
-        <v>103.2</v>
+        <v>103.3</v>
       </c>
       <c r="C121" s="15">
         <v>14.78</v>
@@ -2859,10 +2859,10 @@
         <v>-0.14000000000000001</v>
       </c>
       <c r="E121" s="15">
-        <v>8.17</v>
+        <v>8.24</v>
       </c>
       <c r="F121" s="15">
-        <v>14.94</v>
+        <v>15.19</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.2">
@@ -2876,13 +2876,13 @@
         <v>13.85</v>
       </c>
       <c r="D122" s="16">
-        <v>-0.95</v>
+        <v>-0.94</v>
       </c>
       <c r="E122" s="15">
-        <v>7.44</v>
+        <v>7.41</v>
       </c>
       <c r="F122" s="15">
-        <v>12.22</v>
+        <v>12.21</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.2">
@@ -2890,19 +2890,19 @@
         <v>40724</v>
       </c>
       <c r="B123" s="25">
-        <v>102.2</v>
+        <v>102</v>
       </c>
       <c r="C123" s="15">
-        <v>12.44</v>
+        <v>12.45</v>
       </c>
       <c r="D123" s="16">
         <v>0.61</v>
       </c>
       <c r="E123" s="15">
-        <v>7.54</v>
+        <v>7.37</v>
       </c>
       <c r="F123" s="15">
-        <v>12.08</v>
+        <v>11.52</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.2">
@@ -2919,10 +2919,10 @@
         <v>-0.49</v>
       </c>
       <c r="E124" s="15">
-        <v>6.09</v>
+        <v>6.11</v>
       </c>
       <c r="F124" s="15">
-        <v>11.31</v>
+        <v>11.34</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.2">
@@ -2933,16 +2933,16 @@
         <v>100.1</v>
       </c>
       <c r="C125" s="15">
-        <v>6.06</v>
+        <v>6.04</v>
       </c>
       <c r="D125" s="16">
         <v>1.32</v>
       </c>
       <c r="E125" s="15">
-        <v>3.98</v>
+        <v>4</v>
       </c>
       <c r="F125" s="15">
-        <v>7.93</v>
+        <v>7.96</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.2">
@@ -2959,10 +2959,10 @@
         <v>-0.05</v>
       </c>
       <c r="E126" s="15">
-        <v>3.87</v>
+        <v>3.89</v>
       </c>
       <c r="F126" s="15">
-        <v>7.5</v>
+        <v>7.53</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.2">
@@ -2976,13 +2976,13 @@
         <v>5.89</v>
       </c>
       <c r="D127" s="16">
-        <v>-4.6900000000000004</v>
+        <v>-4.71</v>
       </c>
       <c r="E127" s="15">
-        <v>2.09</v>
+        <v>2.11</v>
       </c>
       <c r="F127" s="15">
-        <v>8.9700000000000006</v>
+        <v>9.01</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.2">
@@ -2993,16 +2993,16 @@
         <v>99.9</v>
       </c>
       <c r="C128" s="15">
-        <v>3.87</v>
+        <v>3.88</v>
       </c>
       <c r="D128" s="16">
         <v>-1.37</v>
       </c>
       <c r="E128" s="15">
-        <v>3.46</v>
+        <v>3.48</v>
       </c>
       <c r="F128" s="15">
-        <v>8.65</v>
+        <v>8.68</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.2">
@@ -3010,19 +3010,19 @@
         <v>40908</v>
       </c>
       <c r="B129" s="25">
-        <v>99.6</v>
+        <v>99.7</v>
       </c>
       <c r="C129" s="15">
-        <v>2.2799999999999998</v>
+        <v>2.27</v>
       </c>
       <c r="D129" s="16">
         <v>-1.81</v>
       </c>
       <c r="E129" s="15">
-        <v>3.42</v>
+        <v>3.44</v>
       </c>
       <c r="F129" s="15">
-        <v>8.42</v>
+        <v>8.4600000000000009</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.2">
@@ -3033,16 +3033,16 @@
         <v>100.3</v>
       </c>
       <c r="C130" s="15">
-        <v>4</v>
+        <v>3.99</v>
       </c>
       <c r="D130" s="16">
-        <v>-0.11</v>
+        <v>-0.1</v>
       </c>
       <c r="E130" s="15">
-        <v>4.38</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="F130" s="15">
-        <v>9.57</v>
+        <v>9.61</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.2">
@@ -3059,10 +3059,10 @@
         <v>-0.28000000000000003</v>
       </c>
       <c r="E131" s="15">
-        <v>6.31</v>
+        <v>6.32</v>
       </c>
       <c r="F131" s="15">
-        <v>9.34</v>
+        <v>9.3800000000000008</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.2">
@@ -3070,19 +3070,19 @@
         <v>40999</v>
       </c>
       <c r="B132" s="25">
-        <v>100.6</v>
+        <v>100.7</v>
       </c>
       <c r="C132" s="15">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="D132" s="16">
         <v>-0.71</v>
       </c>
       <c r="E132" s="15">
-        <v>4.2300000000000004</v>
+        <v>4.24</v>
       </c>
       <c r="F132" s="15">
-        <v>12.07</v>
+        <v>12.11</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.2">
@@ -3099,10 +3099,10 @@
         <v>-1.32</v>
       </c>
       <c r="E133" s="15">
-        <v>4.17</v>
+        <v>4.24</v>
       </c>
       <c r="F133" s="15">
-        <v>9.94</v>
+        <v>10.19</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.2">
@@ -3116,13 +3116,13 @@
         <v>-1.1599999999999999</v>
       </c>
       <c r="D134" s="16">
-        <v>2.1</v>
+        <v>2.11</v>
       </c>
       <c r="E134" s="15">
-        <v>3.44</v>
+        <v>3.41</v>
       </c>
       <c r="F134" s="15">
-        <v>13.22</v>
+        <v>13.21</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.2">
@@ -3130,7 +3130,7 @@
         <v>41090</v>
       </c>
       <c r="B135" s="25">
-        <v>99.2</v>
+        <v>99</v>
       </c>
       <c r="C135" s="15">
         <v>-1.47</v>
@@ -3139,10 +3139,10 @@
         <v>0.59</v>
       </c>
       <c r="E135" s="15">
-        <v>3.54</v>
+        <v>3.37</v>
       </c>
       <c r="F135" s="15">
-        <v>8.08</v>
+        <v>7.52</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.2">
@@ -3153,16 +3153,16 @@
         <v>98.4</v>
       </c>
       <c r="C136" s="15">
-        <v>-5.24</v>
+        <v>-5.23</v>
       </c>
       <c r="D136" s="16">
         <v>-0.68</v>
       </c>
       <c r="E136" s="15">
-        <v>2.09</v>
+        <v>2.11</v>
       </c>
       <c r="F136" s="15">
-        <v>7.31</v>
+        <v>7.34</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.2">
@@ -3173,16 +3173,16 @@
         <v>98.4</v>
       </c>
       <c r="C137" s="15">
-        <v>-5.72</v>
+        <v>-5.73</v>
       </c>
       <c r="D137" s="16">
         <v>-2.66</v>
       </c>
       <c r="E137" s="15">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="F137" s="15">
-        <v>7.93</v>
+        <v>7.96</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.2">
@@ -3193,16 +3193,16 @@
         <v>97.9</v>
       </c>
       <c r="C138" s="15">
-        <v>-8.14</v>
+        <v>-8.1300000000000008</v>
       </c>
       <c r="D138" s="16">
         <v>-0.45</v>
       </c>
       <c r="E138" s="15">
-        <v>-1.1299999999999999</v>
+        <v>-1.1100000000000001</v>
       </c>
       <c r="F138" s="15">
-        <v>7.5</v>
+        <v>7.53</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.2">
@@ -3213,16 +3213,16 @@
         <v>96.9</v>
       </c>
       <c r="C139" s="15">
-        <v>-10.07</v>
+        <v>-10.06</v>
       </c>
       <c r="D139" s="16">
-        <v>-3.65</v>
+        <v>-3.68</v>
       </c>
       <c r="E139" s="15">
-        <v>-1.91</v>
+        <v>-1.89</v>
       </c>
       <c r="F139" s="15">
-        <v>4.97</v>
+        <v>5.01</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.2">
@@ -3233,16 +3233,16 @@
         <v>98.1</v>
       </c>
       <c r="C140" s="15">
-        <v>-6.22</v>
+        <v>-6.2</v>
       </c>
       <c r="D140" s="16">
         <v>-1.26</v>
       </c>
       <c r="E140" s="15">
-        <v>-1.54</v>
+        <v>-1.52</v>
       </c>
       <c r="F140" s="15">
-        <v>7.65</v>
+        <v>7.68</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.2">
@@ -3253,16 +3253,16 @@
         <v>98.6</v>
       </c>
       <c r="C141" s="15">
-        <v>-6.91</v>
+        <v>-6.93</v>
       </c>
       <c r="D141" s="16">
         <v>-5.01</v>
       </c>
       <c r="E141" s="15">
-        <v>-2.58</v>
+        <v>-2.56</v>
       </c>
       <c r="F141" s="15">
-        <v>10.42</v>
+        <v>10.46</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.2">
@@ -3279,10 +3279,10 @@
         <v>0.57999999999999996</v>
       </c>
       <c r="E142" s="15">
-        <v>-2.62</v>
+        <v>-2.6</v>
       </c>
       <c r="F142" s="15">
-        <v>7.57</v>
+        <v>7.61</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.2">
@@ -3299,10 +3299,10 @@
         <v>-0.36</v>
       </c>
       <c r="E143" s="15">
-        <v>-2.69</v>
+        <v>-2.68</v>
       </c>
       <c r="F143" s="15">
-        <v>8.34</v>
+        <v>8.3800000000000008</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.2">
@@ -3319,10 +3319,10 @@
         <v>-3.3</v>
       </c>
       <c r="E144" s="15">
-        <v>-2.77</v>
+        <v>-2.76</v>
       </c>
       <c r="F144" s="15">
-        <v>10.07</v>
+        <v>10.11</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.2">
@@ -3333,16 +3333,16 @@
         <v>98.3</v>
       </c>
       <c r="C145" s="15">
-        <v>-6.62</v>
+        <v>-6.63</v>
       </c>
       <c r="D145" s="16">
-        <v>-0.54</v>
+        <v>-0.53</v>
       </c>
       <c r="E145" s="15">
-        <v>-3.83</v>
+        <v>-3.76</v>
       </c>
       <c r="F145" s="15">
-        <v>8.94</v>
+        <v>9.19</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.2">
@@ -3353,16 +3353,16 @@
         <v>98.5</v>
       </c>
       <c r="C146" s="15">
-        <v>-6.04</v>
+        <v>-6.05</v>
       </c>
       <c r="D146" s="16">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="E146" s="15">
-        <v>-2.56</v>
+        <v>-2.59</v>
       </c>
       <c r="F146" s="15">
-        <v>9.2200000000000006</v>
+        <v>9.2100000000000009</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.2">
@@ -3370,19 +3370,19 @@
         <v>41455</v>
       </c>
       <c r="B147" s="25">
-        <v>97.6</v>
+        <v>97.4</v>
       </c>
       <c r="C147" s="15">
-        <v>-6.34</v>
+        <v>-6.35</v>
       </c>
       <c r="D147" s="16">
-        <v>-0.66</v>
+        <v>-0.65</v>
       </c>
       <c r="E147" s="15">
-        <v>-3.46</v>
+        <v>-3.63</v>
       </c>
       <c r="F147" s="15">
-        <v>6.08</v>
+        <v>5.52</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.2">
@@ -3393,16 +3393,16 @@
         <v>97.9</v>
       </c>
       <c r="C148" s="15">
-        <v>-4</v>
+        <v>-3.99</v>
       </c>
       <c r="D148" s="16">
         <v>1.99</v>
       </c>
       <c r="E148" s="15">
-        <v>-3.91</v>
+        <v>-3.89</v>
       </c>
       <c r="F148" s="15">
-        <v>6.31</v>
+        <v>6.34</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.2">
@@ -3413,16 +3413,16 @@
         <v>99.1</v>
       </c>
       <c r="C149" s="15">
-        <v>-2.4500000000000002</v>
+        <v>-2.4700000000000002</v>
       </c>
       <c r="D149" s="16">
-        <v>2.48</v>
+        <v>2.4900000000000002</v>
       </c>
       <c r="E149" s="15">
-        <v>-0.02</v>
+        <v>0</v>
       </c>
       <c r="F149" s="15">
-        <v>8.93</v>
+        <v>8.9600000000000009</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.2">
@@ -3433,16 +3433,16 @@
         <v>98.9</v>
       </c>
       <c r="C150" s="15">
-        <v>-0.01</v>
+        <v>0</v>
       </c>
       <c r="D150" s="16">
-        <v>2.15</v>
+        <v>2.16</v>
       </c>
       <c r="E150" s="15">
-        <v>-1.1299999999999999</v>
+        <v>-1.1100000000000001</v>
       </c>
       <c r="F150" s="15">
-        <v>7.5</v>
+        <v>7.53</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.2">
@@ -3453,16 +3453,16 @@
         <v>98.9</v>
       </c>
       <c r="C151" s="15">
-        <v>-0.04</v>
+        <v>-0.01</v>
       </c>
       <c r="D151" s="16">
-        <v>3.55</v>
+        <v>3.51</v>
       </c>
       <c r="E151" s="15">
-        <v>0.09</v>
+        <v>0.11</v>
       </c>
       <c r="F151" s="15">
-        <v>6.97</v>
+        <v>7.01</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.2">
@@ -3473,16 +3473,16 @@
         <v>99.7</v>
       </c>
       <c r="C152" s="15">
-        <v>1.61</v>
+        <v>1.64</v>
       </c>
       <c r="D152" s="16">
         <v>1.86</v>
       </c>
       <c r="E152" s="15">
-        <v>-0.54</v>
+        <v>-0.52</v>
       </c>
       <c r="F152" s="15">
-        <v>9.65</v>
+        <v>9.68</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.2">
@@ -3493,16 +3493,16 @@
         <v>99.5</v>
       </c>
       <c r="C153" s="15">
-        <v>0.9</v>
+        <v>0.86</v>
       </c>
       <c r="D153" s="16">
         <v>-0.57999999999999996</v>
       </c>
       <c r="E153" s="15">
-        <v>-0.57999999999999996</v>
+        <v>-0.56000000000000005</v>
       </c>
       <c r="F153" s="15">
-        <v>9.42</v>
+        <v>9.4600000000000009</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.2">
@@ -3513,16 +3513,16 @@
         <v>98.9</v>
       </c>
       <c r="C154" s="15">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="D154" s="16">
         <v>-1.64</v>
       </c>
       <c r="E154" s="15">
-        <v>0.38</v>
+        <v>0.4</v>
       </c>
       <c r="F154" s="15">
-        <v>6.57</v>
+        <v>6.61</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.2">
@@ -3539,10 +3539,10 @@
         <v>-0.08</v>
       </c>
       <c r="E155" s="15">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="F155" s="15">
-        <v>12.34</v>
+        <v>12.38</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.2">
@@ -3550,19 +3550,19 @@
         <v>41729</v>
       </c>
       <c r="B156" s="25">
-        <v>100.9</v>
+        <v>101</v>
       </c>
       <c r="C156" s="15">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="D156" s="16">
         <v>-0.79</v>
       </c>
       <c r="E156" s="15">
-        <v>3.23</v>
+        <v>3.24</v>
       </c>
       <c r="F156" s="15">
-        <v>13.07</v>
+        <v>13.11</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.2">
@@ -3573,16 +3573,16 @@
         <v>101</v>
       </c>
       <c r="C157" s="15">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="D157" s="16">
-        <v>-2.94</v>
+        <v>-2.92</v>
       </c>
       <c r="E157" s="15">
-        <v>3.17</v>
+        <v>3.24</v>
       </c>
       <c r="F157" s="15">
-        <v>13.94</v>
+        <v>14.19</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.2">
@@ -3593,16 +3593,16 @@
         <v>100.1</v>
       </c>
       <c r="C158" s="15">
-        <v>1.1399999999999999</v>
+        <v>1.1200000000000001</v>
       </c>
       <c r="D158" s="16">
-        <v>-3.84</v>
+        <v>-3.83</v>
       </c>
       <c r="E158" s="15">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="F158" s="15">
-        <v>11.22</v>
+        <v>11.21</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.2">
@@ -3610,19 +3610,19 @@
         <v>41820</v>
       </c>
       <c r="B159" s="25">
-        <v>99</v>
+        <v>98.9</v>
       </c>
       <c r="C159" s="15">
-        <v>-0.23</v>
+        <v>-0.24</v>
       </c>
       <c r="D159" s="16">
-        <v>-3</v>
+        <v>-2.99</v>
       </c>
       <c r="E159" s="15">
-        <v>0.54</v>
+        <v>0.37</v>
       </c>
       <c r="F159" s="15">
-        <v>8.08</v>
+        <v>7.52</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.2">
@@ -3633,16 +3633,16 @@
         <v>98.5</v>
       </c>
       <c r="C160" s="15">
-        <v>-0.75</v>
+        <v>-0.73</v>
       </c>
       <c r="D160" s="16">
         <v>-4.6100000000000003</v>
       </c>
       <c r="E160" s="15">
-        <v>-1.91</v>
+        <v>-1.89</v>
       </c>
       <c r="F160" s="15">
-        <v>7.31</v>
+        <v>7.34</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.2">
@@ -3653,16 +3653,16 @@
         <v>99.1</v>
       </c>
       <c r="C161" s="15">
-        <v>-2.2400000000000002</v>
+        <v>-2.2599999999999998</v>
       </c>
       <c r="D161" s="16">
-        <v>-3.59</v>
+        <v>-3.58</v>
       </c>
       <c r="E161" s="15">
-        <v>-2.02</v>
+        <v>-2</v>
       </c>
       <c r="F161" s="15">
-        <v>9.93</v>
+        <v>9.9600000000000009</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.2">
@@ -3673,16 +3673,16 @@
         <v>98.9</v>
       </c>
       <c r="C162" s="15">
-        <v>0.09</v>
+        <v>0.11</v>
       </c>
       <c r="D162" s="16">
-        <v>-1.94</v>
+        <v>-1.92</v>
       </c>
       <c r="E162" s="15">
-        <v>-3.13</v>
+        <v>-3.11</v>
       </c>
       <c r="F162" s="15">
-        <v>8.5</v>
+        <v>8.5299999999999994</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.2">
@@ -3693,16 +3693,16 @@
         <v>98.4</v>
       </c>
       <c r="C163" s="15">
-        <v>-5.97</v>
+        <v>-5.94</v>
       </c>
       <c r="D163" s="16">
-        <v>-7.0000000000000007E-2</v>
+        <v>-0.13</v>
       </c>
       <c r="E163" s="15">
-        <v>-3.91</v>
+        <v>-3.89</v>
       </c>
       <c r="F163" s="15">
-        <v>8.9700000000000006</v>
+        <v>9.01</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.2">
@@ -3713,16 +3713,16 @@
         <v>97.3</v>
       </c>
       <c r="C164" s="15">
-        <v>-5.61</v>
+        <v>-5.56</v>
       </c>
       <c r="D164" s="16">
         <v>-3.04</v>
       </c>
       <c r="E164" s="15">
-        <v>-2.54</v>
+        <v>-2.52</v>
       </c>
       <c r="F164" s="15">
-        <v>4.6500000000000004</v>
+        <v>4.68</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.2">
@@ -3733,16 +3733,16 @@
         <v>98.1</v>
       </c>
       <c r="C165" s="15">
-        <v>-3.37</v>
+        <v>-3.43</v>
       </c>
       <c r="D165" s="16">
         <v>-2.2599999999999998</v>
       </c>
       <c r="E165" s="15">
-        <v>-4.58</v>
+        <v>-4.5599999999999996</v>
       </c>
       <c r="F165" s="15">
-        <v>7.42</v>
+        <v>7.46</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.2">
@@ -3753,16 +3753,16 @@
         <v>98.4</v>
       </c>
       <c r="C166" s="27">
-        <v>-2.74</v>
+        <v>-2.73</v>
       </c>
       <c r="D166" s="28">
         <v>-1.73</v>
       </c>
       <c r="E166" s="27">
-        <v>-2.62</v>
+        <v>-2.6</v>
       </c>
       <c r="F166" s="15">
-        <v>7.57</v>
+        <v>7.61</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.2">
@@ -3770,19 +3770,19 @@
         <v>42063</v>
       </c>
       <c r="B167" s="26">
-        <v>98.7</v>
+        <v>98.8</v>
       </c>
       <c r="C167" s="27">
-        <v>-0.75</v>
+        <v>-0.73</v>
       </c>
       <c r="D167" s="28">
-        <v>-4.6399999999999997</v>
+        <v>-4.63</v>
       </c>
       <c r="E167" s="27">
-        <v>-2.69</v>
+        <v>-2.68</v>
       </c>
       <c r="F167" s="15">
-        <v>8.34</v>
+        <v>8.3800000000000008</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.2">
@@ -3793,16 +3793,16 @@
         <v>99.9</v>
       </c>
       <c r="C168" s="27">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="D168" s="28">
         <v>-3.21</v>
       </c>
       <c r="E168" s="27">
-        <v>-1.77</v>
+        <v>-1.76</v>
       </c>
       <c r="F168" s="15">
-        <v>11.07</v>
+        <v>11.11</v>
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.2">
@@ -3810,19 +3810,19 @@
         <v>42124</v>
       </c>
       <c r="B169" s="26">
-        <v>100.3</v>
+        <v>100.4</v>
       </c>
       <c r="C169" s="27">
-        <v>2.29</v>
+        <v>2.2599999999999998</v>
       </c>
       <c r="D169" s="28">
-        <v>-3.41</v>
+        <v>-3.39</v>
       </c>
       <c r="E169" s="27">
-        <v>0.17</v>
+        <v>0.24</v>
       </c>
       <c r="F169" s="15">
-        <v>11.94</v>
+        <v>12.19</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.2">
@@ -3833,16 +3833,16 @@
         <v>100.3</v>
       </c>
       <c r="C170" s="27">
-        <v>2.4</v>
+        <v>2.37</v>
       </c>
       <c r="D170" s="28">
-        <v>-5.07</v>
+        <v>-5.0599999999999996</v>
       </c>
       <c r="E170" s="27">
-        <v>-0.56000000000000005</v>
+        <v>-0.59</v>
       </c>
       <c r="F170" s="15">
-        <v>12.22</v>
+        <v>12.21</v>
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.2">
@@ -3850,19 +3850,19 @@
         <v>42185</v>
       </c>
       <c r="B171" s="26">
-        <v>100.1</v>
+        <v>100</v>
       </c>
       <c r="C171" s="27">
-        <v>1.99</v>
+        <v>1.95</v>
       </c>
       <c r="D171" s="28">
-        <v>-5.53</v>
+        <v>-5.51</v>
       </c>
       <c r="E171" s="27">
-        <v>-1.46</v>
+        <v>-1.63</v>
       </c>
       <c r="F171" s="15">
-        <v>12.08</v>
+        <v>11.52</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.2">
@@ -3873,16 +3873,16 @@
         <v>100.4</v>
       </c>
       <c r="C172" s="27">
-        <v>1.56</v>
+        <v>1.59</v>
       </c>
       <c r="D172" s="28">
-        <v>-2.35</v>
+        <v>-2.34</v>
       </c>
       <c r="E172" s="27">
-        <v>1.0900000000000001</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="F172" s="15">
-        <v>12.31</v>
+        <v>12.34</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.2">
@@ -3893,16 +3893,16 @@
         <v>100</v>
       </c>
       <c r="C173" s="27">
-        <v>-2.06</v>
+        <v>-2.09</v>
       </c>
       <c r="D173" s="28">
-        <v>0.56999999999999995</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="E173" s="27">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="F173" s="15">
-        <v>11.93</v>
+        <v>11.96</v>
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.2">
@@ -3913,16 +3913,16 @@
         <v>99.6</v>
       </c>
       <c r="C174" s="27">
-        <v>-0.97</v>
+        <v>-0.95</v>
       </c>
       <c r="D174" s="28">
-        <v>-1.79</v>
+        <v>-1.77</v>
       </c>
       <c r="E174" s="27">
-        <v>-0.13</v>
+        <v>-0.11</v>
       </c>
       <c r="F174" s="15">
-        <v>10.5</v>
+        <v>10.53</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.2">
@@ -3933,16 +3933,16 @@
         <v>100.3</v>
       </c>
       <c r="C175" s="27">
-        <v>-4.05</v>
+        <v>-4</v>
       </c>
       <c r="D175" s="28">
-        <v>-0.81</v>
+        <v>-0.89</v>
       </c>
       <c r="E175" s="27">
-        <v>1.0900000000000001</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="F175" s="15">
-        <v>13.97</v>
+        <v>14.01</v>
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.2">
@@ -3950,19 +3950,19 @@
         <v>42338</v>
       </c>
       <c r="B176" s="26">
-        <v>100.9</v>
+        <v>101</v>
       </c>
       <c r="C176" s="27">
-        <v>-1.84</v>
+        <v>-1.78</v>
       </c>
       <c r="D176" s="28">
-        <v>4.17</v>
+        <v>4.1500000000000004</v>
       </c>
       <c r="E176" s="27">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="F176" s="15">
-        <v>14.65</v>
+        <v>14.68</v>
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.2">
@@ -3973,16 +3973,16 @@
         <v>101.1</v>
       </c>
       <c r="C177" s="27">
-        <v>-1.67</v>
+        <v>-1.72</v>
       </c>
       <c r="D177" s="28">
-        <v>2.2200000000000002</v>
+        <v>2.21</v>
       </c>
       <c r="E177" s="27">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="F177" s="15">
-        <v>15.42</v>
+        <v>15.46</v>
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.2">
@@ -3993,16 +3993,16 @@
         <v>100.8</v>
       </c>
       <c r="C178" s="15">
-        <v>-2.92</v>
+        <v>-2.93</v>
       </c>
       <c r="D178" s="17">
-        <v>-0.98</v>
+        <v>-0.99</v>
       </c>
       <c r="E178" s="15">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="F178" s="15">
-        <v>15.57</v>
+        <v>15.61</v>
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.2">
@@ -4013,16 +4013,16 @@
         <v>99.6</v>
       </c>
       <c r="C179" s="15">
-        <v>-3.96</v>
+        <v>-3.95</v>
       </c>
       <c r="D179" s="17">
-        <v>1.76</v>
+        <v>1.77</v>
       </c>
       <c r="E179" s="15">
-        <v>0.31</v>
+        <v>0.32</v>
       </c>
       <c r="F179" s="15">
-        <v>11.34</v>
+        <v>11.38</v>
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.2">
@@ -4036,13 +4036,13 @@
         <v>-3.2</v>
       </c>
       <c r="D180" s="17">
-        <v>2.35</v>
+        <v>2.36</v>
       </c>
       <c r="E180" s="15">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="F180" s="15">
-        <v>10.07</v>
+        <v>10.11</v>
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.2">
@@ -4050,19 +4050,19 @@
         <v>42484</v>
       </c>
       <c r="B181" s="25">
-        <v>100.5</v>
+        <v>100.6</v>
       </c>
       <c r="C181" s="15">
-        <v>-2.63</v>
+        <v>-2.65</v>
       </c>
       <c r="D181" s="16">
-        <v>-0.77</v>
+        <v>-0.74</v>
       </c>
       <c r="E181" s="15">
-        <v>2.17</v>
+        <v>2.2400000000000002</v>
       </c>
       <c r="F181" s="15">
-        <v>13.94</v>
+        <v>14.19</v>
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.2">
@@ -4073,16 +4073,16 @@
         <v>100.3</v>
       </c>
       <c r="C182" s="15">
-        <v>-1.28</v>
+        <v>-1.31</v>
       </c>
       <c r="D182" s="16">
-        <v>3.52</v>
+        <v>3.53</v>
       </c>
       <c r="E182" s="15">
-        <v>2.44</v>
+        <v>2.41</v>
       </c>
       <c r="F182" s="15">
-        <v>12.22</v>
+        <v>12.21</v>
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.2">
@@ -4090,19 +4090,19 @@
         <v>42540</v>
       </c>
       <c r="B183" s="25">
-        <v>100.2</v>
+        <v>100</v>
       </c>
       <c r="C183" s="15">
-        <v>0.22</v>
+        <v>0.18</v>
       </c>
       <c r="D183" s="16">
-        <v>7</v>
+        <v>7.03</v>
       </c>
       <c r="E183" s="15">
-        <v>4.54</v>
+        <v>4.37</v>
       </c>
       <c r="F183" s="15">
-        <v>10.08</v>
+        <v>9.52</v>
       </c>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.2">
@@ -4113,16 +4113,16 @@
         <v>100.6</v>
       </c>
       <c r="C184" s="15">
-        <v>-0.18</v>
+        <v>-0.13</v>
       </c>
       <c r="D184" s="16">
-        <v>5.66</v>
+        <v>5.67</v>
       </c>
       <c r="E184" s="15">
-        <v>3.09</v>
+        <v>3.11</v>
       </c>
       <c r="F184" s="15">
-        <v>12.31</v>
+        <v>12.34</v>
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.2">
@@ -4133,16 +4133,16 @@
         <v>100.8</v>
       </c>
       <c r="C185" s="15">
-        <v>0.97</v>
+        <v>0.91</v>
       </c>
       <c r="D185" s="16">
-        <v>6.72</v>
+        <v>6.73</v>
       </c>
       <c r="E185" s="15">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="F185" s="15">
-        <v>12.93</v>
+        <v>12.96</v>
       </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.2">
@@ -4153,16 +4153,16 @@
         <v>101.5</v>
       </c>
       <c r="C186" s="15">
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
       <c r="D186" s="16">
-        <v>9.69</v>
+        <v>9.7100000000000009</v>
       </c>
       <c r="E186" s="15">
-        <v>2.87</v>
+        <v>2.89</v>
       </c>
       <c r="F186" s="15">
-        <v>14.5</v>
+        <v>14.53</v>
       </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.2">
@@ -4173,16 +4173,16 @@
         <v>101.7</v>
       </c>
       <c r="C187" s="15">
-        <v>2.8</v>
+        <v>2.91</v>
       </c>
       <c r="D187" s="16">
-        <v>6.55</v>
+        <v>6.45</v>
       </c>
       <c r="E187" s="15">
-        <v>3.09</v>
+        <v>3.11</v>
       </c>
       <c r="F187" s="15">
-        <v>14.97</v>
+        <v>15.01</v>
       </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.2">
@@ -4193,16 +4193,16 @@
         <v>102</v>
       </c>
       <c r="C188" s="15">
-        <v>2.99</v>
+        <v>3.08</v>
       </c>
       <c r="D188" s="16">
-        <v>6.39</v>
+        <v>6.35</v>
       </c>
       <c r="E188" s="15">
-        <v>1.46</v>
+        <v>1.48</v>
       </c>
       <c r="F188" s="15">
-        <v>16.649999999999999</v>
+        <v>16.68</v>
       </c>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.2">
@@ -4213,16 +4213,16 @@
         <v>102.2</v>
       </c>
       <c r="C189" s="15">
-        <v>2.99</v>
+        <v>2.89</v>
       </c>
       <c r="D189" s="16">
-        <v>7.85</v>
+        <v>7.83</v>
       </c>
       <c r="E189" s="15">
-        <v>4.42</v>
+        <v>4.4400000000000004</v>
       </c>
       <c r="F189" s="15">
-        <v>16.420000000000002</v>
+        <v>16.46</v>
       </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.2">
@@ -4233,16 +4233,16 @@
         <v>102</v>
       </c>
       <c r="C190" s="15">
-        <v>4.9400000000000004</v>
+        <v>4.92</v>
       </c>
       <c r="D190" s="16">
-        <v>6.47</v>
+        <v>6.46</v>
       </c>
       <c r="E190" s="15">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="F190" s="15">
-        <v>15.57</v>
+        <v>15.61</v>
       </c>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.2">
@@ -4253,16 +4253,16 @@
         <v>101.8</v>
       </c>
       <c r="C191" s="15">
-        <v>6.88</v>
+        <v>6.9</v>
       </c>
       <c r="D191" s="16">
-        <v>6.91</v>
+        <v>6.92</v>
       </c>
       <c r="E191" s="15">
-        <v>4.3099999999999996</v>
+        <v>4.32</v>
       </c>
       <c r="F191" s="15">
-        <v>13.34</v>
+        <v>13.38</v>
       </c>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.2">
@@ -4276,13 +4276,13 @@
         <v>5.96</v>
       </c>
       <c r="D192" s="16">
-        <v>9.02</v>
+        <v>9.0500000000000007</v>
       </c>
       <c r="E192" s="15">
-        <v>5.23</v>
+        <v>5.24</v>
       </c>
       <c r="F192" s="15">
-        <v>13.07</v>
+        <v>13.11</v>
       </c>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.2">
@@ -4290,19 +4290,19 @@
         <v>42855</v>
       </c>
       <c r="B193" s="25">
-        <v>103.2</v>
+        <v>103.3</v>
       </c>
       <c r="C193" s="15">
-        <v>8.3800000000000008</v>
+        <v>8.36</v>
       </c>
       <c r="D193" s="16">
-        <v>12.16</v>
+        <v>12.22</v>
       </c>
       <c r="E193" s="15">
-        <v>6.17</v>
+        <v>6.24</v>
       </c>
       <c r="F193" s="15">
-        <v>16.940000000000001</v>
+        <v>17.190000000000001</v>
       </c>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.2">
@@ -4313,16 +4313,16 @@
         <v>102.9</v>
       </c>
       <c r="C194" s="15">
-        <v>10.07</v>
+        <v>10.06</v>
       </c>
       <c r="D194" s="16">
-        <v>12.98</v>
+        <v>13</v>
       </c>
       <c r="E194" s="15">
-        <v>4.4400000000000004</v>
+        <v>4.41</v>
       </c>
       <c r="F194" s="15">
-        <v>15.22</v>
+        <v>15.21</v>
       </c>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.2">
@@ -4330,19 +4330,19 @@
         <v>42916</v>
       </c>
       <c r="B195" s="25">
-        <v>103.3</v>
+        <v>103.1</v>
       </c>
       <c r="C195" s="15">
-        <v>10.46</v>
+        <v>10.42</v>
       </c>
       <c r="D195" s="16">
-        <v>14.3</v>
+        <v>14.36</v>
       </c>
       <c r="E195" s="15">
-        <v>5.54</v>
+        <v>5.37</v>
       </c>
       <c r="F195" s="15">
-        <v>16.079999999999998</v>
+        <v>15.52</v>
       </c>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.2">
@@ -4353,16 +4353,16 @@
         <v>103.6</v>
       </c>
       <c r="C196" s="15">
-        <v>12.03</v>
+        <v>12.08</v>
       </c>
       <c r="D196" s="16">
-        <v>12.76</v>
+        <v>12.77</v>
       </c>
       <c r="E196" s="15">
-        <v>7.09</v>
+        <v>7.11</v>
       </c>
       <c r="F196" s="15">
-        <v>16.309999999999999</v>
+        <v>16.34</v>
       </c>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.2">
@@ -4373,16 +4373,16 @@
         <v>103</v>
       </c>
       <c r="C197" s="15">
-        <v>12.97</v>
+        <v>12.86</v>
       </c>
       <c r="D197" s="16">
         <v>13.26</v>
       </c>
       <c r="E197" s="15">
-        <v>5.98</v>
+        <v>6</v>
       </c>
       <c r="F197" s="15">
-        <v>13.93</v>
+        <v>13.96</v>
       </c>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.2">
@@ -4393,16 +4393,16 @@
         <v>103.4</v>
       </c>
       <c r="C198" s="15">
-        <v>10.91</v>
+        <v>10.9</v>
       </c>
       <c r="D198" s="16">
         <v>10.95</v>
       </c>
       <c r="E198" s="15">
-        <v>6.87</v>
+        <v>6.89</v>
       </c>
       <c r="F198" s="15">
-        <v>16.5</v>
+        <v>16.53</v>
       </c>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.2">
@@ -4413,16 +4413,16 @@
         <v>103.5</v>
       </c>
       <c r="C199" s="15">
-        <v>12.62</v>
+        <v>12.8</v>
       </c>
       <c r="D199" s="17">
-        <v>7.79</v>
+        <v>7.67</v>
       </c>
       <c r="E199" s="15">
-        <v>8.09</v>
+        <v>8.11</v>
       </c>
       <c r="F199" s="15">
-        <v>15.97</v>
+        <v>16.010000000000002</v>
       </c>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.2">
@@ -4433,16 +4433,16 @@
         <v>103.3</v>
       </c>
       <c r="C200" s="15">
-        <v>12.85</v>
+        <v>12.97</v>
       </c>
       <c r="D200" s="16">
-        <v>10.59</v>
+        <v>10.5</v>
       </c>
       <c r="E200" s="15">
-        <v>8.4600000000000009</v>
+        <v>8.48</v>
       </c>
       <c r="F200" s="15">
-        <v>14.65</v>
+        <v>14.68</v>
       </c>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.2">
@@ -4453,16 +4453,16 @@
         <v>104.4</v>
       </c>
       <c r="C201" s="15">
-        <v>15.65</v>
+        <v>15.47</v>
       </c>
       <c r="D201" s="16">
-        <v>9.7200000000000006</v>
+        <v>9.66</v>
       </c>
       <c r="E201" s="15">
-        <v>9.42</v>
+        <v>9.44</v>
       </c>
       <c r="F201" s="15">
-        <v>17.420000000000002</v>
+        <v>17.46</v>
       </c>
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.2">
@@ -4473,16 +4473,16 @@
         <v>105.2</v>
       </c>
       <c r="C202" s="15">
-        <v>14.9</v>
+        <v>14.88</v>
       </c>
       <c r="D202" s="16">
-        <v>12.73</v>
+        <v>12.7</v>
       </c>
       <c r="E202" s="15">
-        <v>9.3800000000000008</v>
+        <v>9.4</v>
       </c>
       <c r="F202" s="15">
-        <v>20.57</v>
+        <v>20.61</v>
       </c>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.2">
@@ -4490,19 +4490,19 @@
         <v>43159</v>
       </c>
       <c r="B203" s="25">
-        <v>104.9</v>
+        <v>105</v>
       </c>
       <c r="C203" s="15">
-        <v>12.8</v>
+        <v>12.82</v>
       </c>
       <c r="D203" s="16">
-        <v>12.05</v>
+        <v>12.07</v>
       </c>
       <c r="E203" s="15">
-        <v>10.31</v>
+        <v>10.32</v>
       </c>
       <c r="F203" s="15">
-        <v>20.34</v>
+        <v>20.38</v>
       </c>
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.2">
@@ -4516,13 +4516,13 @@
         <v>13.13</v>
       </c>
       <c r="D204" s="16">
-        <v>11.84</v>
+        <v>11.91</v>
       </c>
       <c r="E204" s="15">
-        <v>7.23</v>
+        <v>7.24</v>
       </c>
       <c r="F204" s="15">
-        <v>19.07</v>
+        <v>19.11</v>
       </c>
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.2">
@@ -4530,19 +4530,19 @@
         <v>43214</v>
       </c>
       <c r="B205" s="25">
-        <v>104</v>
+        <v>104.1</v>
       </c>
       <c r="C205" s="15">
         <v>14.36</v>
       </c>
       <c r="D205" s="16">
-        <v>13.13</v>
+        <v>13.23</v>
       </c>
       <c r="E205" s="15">
-        <v>7.17</v>
+        <v>7.24</v>
       </c>
       <c r="F205" s="15">
-        <v>16.940000000000001</v>
+        <v>17.190000000000001</v>
       </c>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.2">
@@ -4556,13 +4556,13 @@
         <v>12.39</v>
       </c>
       <c r="D206" s="16">
-        <v>13.26</v>
+        <v>13.33</v>
       </c>
       <c r="E206" s="15">
-        <v>7.44</v>
+        <v>7.41</v>
       </c>
       <c r="F206" s="15">
-        <v>20.22</v>
+        <v>20.21</v>
       </c>
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.2">
@@ -4570,19 +4570,19 @@
         <v>43269</v>
       </c>
       <c r="B207" s="25">
-        <v>104.4</v>
+        <v>104.2</v>
       </c>
       <c r="C207" s="15">
-        <v>13.59</v>
+        <v>13.57</v>
       </c>
       <c r="D207" s="16">
-        <v>10.51</v>
+        <v>10.61</v>
       </c>
       <c r="E207" s="15">
-        <v>6.54</v>
+        <v>6.37</v>
       </c>
       <c r="F207" s="15">
-        <v>19.079999999999998</v>
+        <v>18.52</v>
       </c>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.2">
@@ -4593,16 +4593,16 @@
         <v>104.4</v>
       </c>
       <c r="C208" s="15">
-        <v>12.18</v>
+        <v>12.23</v>
       </c>
       <c r="D208" s="16">
-        <v>13.89</v>
+        <v>13.95</v>
       </c>
       <c r="E208" s="15">
-        <v>7.09</v>
+        <v>7.11</v>
       </c>
       <c r="F208" s="15">
-        <v>19.309999999999999</v>
+        <v>19.34</v>
       </c>
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.2">
@@ -4613,16 +4613,16 @@
         <v>105</v>
       </c>
       <c r="C209" s="15">
-        <v>9.9600000000000009</v>
+        <v>9.7799999999999994</v>
       </c>
       <c r="D209" s="16">
-        <v>12.83</v>
+        <v>12.8</v>
       </c>
       <c r="E209" s="15">
-        <v>5.98</v>
+        <v>6</v>
       </c>
       <c r="F209" s="15">
-        <v>22.93</v>
+        <v>22.96</v>
       </c>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.2">
@@ -4633,16 +4633,16 @@
         <v>104.9</v>
       </c>
       <c r="C210" s="15">
-        <v>11.88</v>
+        <v>11.85</v>
       </c>
       <c r="D210" s="16">
-        <v>13.06</v>
+        <v>13</v>
       </c>
       <c r="E210" s="15">
-        <v>5.87</v>
+        <v>5.89</v>
       </c>
       <c r="F210" s="15">
-        <v>21.5</v>
+        <v>21.53</v>
       </c>
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.2">
@@ -4653,16 +4653,16 @@
         <v>104.3</v>
       </c>
       <c r="C211" s="15">
-        <v>8.48</v>
+        <v>8.75</v>
       </c>
       <c r="D211" s="16">
-        <v>17.14</v>
+        <v>16.989999999999998</v>
       </c>
       <c r="E211" s="15">
-        <v>4.09</v>
+        <v>4.1100000000000003</v>
       </c>
       <c r="F211" s="15">
-        <v>20.97</v>
+        <v>21.01</v>
       </c>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.2">
@@ -4673,16 +4673,16 @@
         <v>103.4</v>
       </c>
       <c r="C212" s="15">
-        <v>9.74</v>
+        <v>9.89</v>
       </c>
       <c r="D212" s="16">
-        <v>19.86</v>
+        <v>19.68</v>
       </c>
       <c r="E212" s="15">
-        <v>4.46</v>
+        <v>4.4800000000000004</v>
       </c>
       <c r="F212" s="15">
-        <v>16.649999999999999</v>
+        <v>16.68</v>
       </c>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.2">
@@ -4693,16 +4693,16 @@
         <v>103.8</v>
       </c>
       <c r="C213" s="15">
-        <v>8.36</v>
+        <v>8.09</v>
       </c>
       <c r="D213" s="16">
-        <v>14.97</v>
+        <v>14.82</v>
       </c>
       <c r="E213" s="15">
-        <v>4.42</v>
+        <v>4.4400000000000004</v>
       </c>
       <c r="F213" s="15">
-        <v>19.420000000000002</v>
+        <v>19.46</v>
       </c>
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.2">
@@ -4713,16 +4713,16 @@
         <v>102.7</v>
       </c>
       <c r="C214" s="15">
-        <v>3.78</v>
+        <v>3.76</v>
       </c>
       <c r="D214" s="16">
-        <v>13.9</v>
+        <v>13.87</v>
       </c>
       <c r="E214" s="15">
-        <v>3.38</v>
+        <v>3.4</v>
       </c>
       <c r="F214" s="15">
-        <v>17.57</v>
+        <v>17.61</v>
       </c>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.2">
@@ -4733,16 +4733,16 @@
         <v>102.8</v>
       </c>
       <c r="C215" s="15">
-        <v>2.72</v>
+        <v>2.75</v>
       </c>
       <c r="D215" s="16">
-        <v>17.07</v>
+        <v>17.12</v>
       </c>
       <c r="E215" s="15">
-        <v>2.31</v>
+        <v>2.3199999999999998</v>
       </c>
       <c r="F215" s="15">
-        <v>18.34</v>
+        <v>18.38</v>
       </c>
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.2">
@@ -4756,13 +4756,13 @@
         <v>-1.64</v>
       </c>
       <c r="D216" s="16">
-        <v>16.54</v>
+        <v>16.68</v>
       </c>
       <c r="E216" s="15">
-        <v>3.23</v>
+        <v>3.24</v>
       </c>
       <c r="F216" s="15">
-        <v>15.07</v>
+        <v>15.11</v>
       </c>
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.2">
@@ -4770,19 +4770,19 @@
         <v>43556</v>
       </c>
       <c r="B217" s="25">
-        <v>102</v>
+        <v>102.1</v>
       </c>
       <c r="C217" s="15">
         <v>-3.61</v>
       </c>
       <c r="D217" s="16">
-        <v>12.97</v>
+        <v>13.15</v>
       </c>
       <c r="E217" s="15">
-        <v>4.17</v>
+        <v>4.24</v>
       </c>
       <c r="F217" s="15">
-        <v>17.940000000000001</v>
+        <v>18.190000000000001</v>
       </c>
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.2">
@@ -4793,16 +4793,16 @@
         <v>100.8</v>
       </c>
       <c r="C218" s="15">
-        <v>-4.3499999999999996</v>
+        <v>-4.34</v>
       </c>
       <c r="D218" s="16">
-        <v>14.55</v>
+        <v>14.67</v>
       </c>
       <c r="E218" s="15">
-        <v>2.44</v>
+        <v>2.41</v>
       </c>
       <c r="F218" s="15">
-        <v>14.22</v>
+        <v>14.21</v>
       </c>
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.2">
@@ -4810,19 +4810,19 @@
         <v>43643</v>
       </c>
       <c r="B219" s="25">
-        <v>100.2</v>
+        <v>100</v>
       </c>
       <c r="C219" s="15">
-        <v>-7.31</v>
+        <v>-7.34</v>
       </c>
       <c r="D219" s="16">
-        <v>12.63</v>
+        <v>12.79</v>
       </c>
       <c r="E219" s="15">
-        <v>-0.46</v>
+        <v>-0.63</v>
       </c>
       <c r="F219" s="15">
-        <v>14.08</v>
+        <v>13.52</v>
       </c>
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.2">
@@ -4830,19 +4830,19 @@
         <v>43647</v>
       </c>
       <c r="B220" s="25">
-        <v>99.6</v>
+        <v>99.7</v>
       </c>
       <c r="C220" s="15">
-        <v>-11.66</v>
+        <v>-11.6</v>
       </c>
       <c r="D220" s="16">
-        <v>14.13</v>
+        <v>14.27</v>
       </c>
       <c r="E220" s="15">
-        <v>1.0900000000000001</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="F220" s="15">
-        <v>13.31</v>
+        <v>13.34</v>
       </c>
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.2">
@@ -4850,19 +4850,19 @@
         <v>43705</v>
       </c>
       <c r="B221" s="25">
-        <v>98.1</v>
+        <v>98</v>
       </c>
       <c r="C221" s="15">
-        <v>-11.09</v>
+        <v>-11.3</v>
       </c>
       <c r="D221" s="15">
-        <v>12.46</v>
+        <v>12.41</v>
       </c>
       <c r="E221" s="15">
-        <v>-1.02</v>
+        <v>-1</v>
       </c>
       <c r="F221" s="15">
-        <v>7.93</v>
+        <v>7.96</v>
       </c>
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.2">
@@ -4873,16 +4873,16 @@
         <v>98.7</v>
       </c>
       <c r="C222" s="15">
-        <v>-13.14</v>
+        <v>-13.18</v>
       </c>
       <c r="D222" s="15">
-        <v>9.8800000000000008</v>
+        <v>9.77</v>
       </c>
       <c r="E222" s="15">
-        <v>-1.1299999999999999</v>
+        <v>-1.1100000000000001</v>
       </c>
       <c r="F222" s="15">
-        <v>11.5</v>
+        <v>11.53</v>
       </c>
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.2">
@@ -4893,16 +4893,16 @@
         <v>98.4</v>
       </c>
       <c r="C223" s="15">
-        <v>-12.68</v>
+        <v>-12.35</v>
       </c>
       <c r="D223" s="15">
-        <v>11.39</v>
+        <v>11.18</v>
       </c>
       <c r="E223" s="15">
-        <v>-0.91</v>
+        <v>-0.89</v>
       </c>
       <c r="F223" s="15">
-        <v>9.9700000000000006</v>
+        <v>10.01</v>
       </c>
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.2">
@@ -4913,16 +4913,16 @@
         <v>99.2</v>
       </c>
       <c r="C224" s="15">
-        <v>-14.37</v>
+        <v>-14.18</v>
       </c>
       <c r="D224" s="15">
-        <v>10.34</v>
+        <v>10.039999999999999</v>
       </c>
       <c r="E224" s="15">
-        <v>-0.54</v>
+        <v>-0.52</v>
       </c>
       <c r="F224" s="15">
-        <v>13.65</v>
+        <v>13.68</v>
       </c>
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.2">
@@ -4933,16 +4933,16 @@
         <v>98.6</v>
       </c>
       <c r="C225" s="15">
-        <v>-15.85</v>
+        <v>-16.149999999999999</v>
       </c>
       <c r="D225" s="15">
-        <v>11.54</v>
+        <v>11.26</v>
       </c>
       <c r="E225" s="15">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="F225" s="15">
-        <v>11.42</v>
+        <v>11.46</v>
       </c>
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.2">
@@ -4953,16 +4953,16 @@
         <v>99.4</v>
       </c>
       <c r="C226" s="15">
-        <v>-15.33</v>
+        <v>-15.35</v>
       </c>
       <c r="D226" s="15">
-        <v>10.34</v>
+        <v>10.32</v>
       </c>
       <c r="E226" s="15">
-        <v>0.38</v>
+        <v>0.4</v>
       </c>
       <c r="F226" s="15">
-        <v>14.57</v>
+        <v>14.61</v>
       </c>
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.2">
@@ -4973,16 +4973,16 @@
         <v>98</v>
       </c>
       <c r="C227" s="15">
-        <v>-18.399999999999999</v>
+        <v>-18.37</v>
       </c>
       <c r="D227" s="15">
-        <v>10.16</v>
+        <v>10.25</v>
       </c>
       <c r="E227" s="15">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="F227" s="15">
-        <v>10.34</v>
+        <v>10.38</v>
       </c>
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.2">
@@ -4990,19 +4990,19 @@
         <v>43910</v>
       </c>
       <c r="B228" s="25">
-        <v>93.5</v>
+        <v>93.6</v>
       </c>
       <c r="C228" s="15">
         <v>-18.45</v>
       </c>
       <c r="D228" s="15">
-        <v>2.99</v>
+        <v>3.2</v>
       </c>
       <c r="E228" s="15">
-        <v>-7.77</v>
+        <v>-7.76</v>
       </c>
       <c r="F228" s="15">
-        <v>-2.93</v>
+        <v>-2.89</v>
       </c>
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.2">
@@ -5010,19 +5010,19 @@
         <v>43935</v>
       </c>
       <c r="B229" s="25">
-        <v>86.8</v>
+        <v>86.9</v>
       </c>
       <c r="C229" s="15">
         <v>-28.55</v>
       </c>
       <c r="D229" s="15">
-        <v>-6.39</v>
+        <v>-6.14</v>
       </c>
       <c r="E229" s="15">
-        <v>-24.83</v>
+        <v>-24.76</v>
       </c>
       <c r="F229" s="15">
-        <v>-18.059999999999999</v>
+        <v>-17.809999999999999</v>
       </c>
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.2">
@@ -5030,19 +5030,19 @@
         <v>43960</v>
       </c>
       <c r="B230" s="25">
-        <v>88.7</v>
+        <v>88.8</v>
       </c>
       <c r="C230" s="15">
-        <v>-28.08</v>
+        <v>-28.06</v>
       </c>
       <c r="D230" s="15">
-        <v>-3.29</v>
+        <v>-3.1</v>
       </c>
       <c r="E230" s="15">
-        <v>-19.559999999999999</v>
+        <v>-19.59</v>
       </c>
       <c r="F230" s="15">
-        <v>-12.78</v>
+        <v>-12.79</v>
       </c>
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.2">
@@ -5050,19 +5050,19 @@
         <v>43985</v>
       </c>
       <c r="B231" s="25">
-        <v>92.5</v>
+        <v>92.3</v>
       </c>
       <c r="C231" s="15">
-        <v>-25.15</v>
+        <v>-25.19</v>
       </c>
       <c r="D231" s="15">
-        <v>1.73</v>
+        <v>1.94</v>
       </c>
       <c r="E231" s="15">
-        <v>-11.46</v>
+        <v>-11.63</v>
       </c>
       <c r="F231" s="15">
-        <v>-2.92</v>
+        <v>-3.48</v>
       </c>
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.2">
@@ -5073,16 +5073,16 @@
         <v>93.3</v>
       </c>
       <c r="C232" s="15">
-        <v>-22.54</v>
+        <v>-22.48</v>
       </c>
       <c r="D232" s="15">
-        <v>0.27</v>
+        <v>0.49</v>
       </c>
       <c r="E232" s="15">
-        <v>-7.91</v>
+        <v>-7.89</v>
       </c>
       <c r="F232" s="15">
-        <v>-1.69</v>
+        <v>-1.66</v>
       </c>
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.2">
@@ -5093,16 +5093,16 @@
         <v>95.2</v>
       </c>
       <c r="C233" s="15">
-        <v>-19.2</v>
+        <v>-19.440000000000001</v>
       </c>
       <c r="D233" s="15">
-        <v>1.82</v>
+        <v>1.76</v>
       </c>
       <c r="E233" s="15">
-        <v>-8.02</v>
+        <v>-8</v>
       </c>
       <c r="F233" s="15">
-        <v>3.93</v>
+        <v>3.96</v>
       </c>
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.2">
@@ -5113,16 +5113,16 @@
         <v>96.1</v>
       </c>
       <c r="C234" s="15">
-        <v>-16.21</v>
+        <v>-16.27</v>
       </c>
       <c r="D234" s="15">
-        <v>4.7</v>
+        <v>4.53</v>
       </c>
       <c r="E234" s="15">
-        <v>-4.13</v>
+        <v>-4.1100000000000003</v>
       </c>
       <c r="F234" s="15">
-        <v>4.5</v>
+        <v>4.53</v>
       </c>
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.2">
@@ -5133,16 +5133,16 @@
         <v>96.3</v>
       </c>
       <c r="C235" s="25">
-        <v>-13.8</v>
+        <v>-13.43</v>
       </c>
       <c r="D235" s="25">
-        <v>4.96</v>
+        <v>4.75</v>
       </c>
       <c r="E235" s="25">
-        <v>0.09</v>
+        <v>0.11</v>
       </c>
       <c r="F235" s="25">
-        <v>2.97</v>
+        <v>3.01</v>
       </c>
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.2">
@@ -5153,16 +5153,16 @@
         <v>96.6</v>
       </c>
       <c r="C236" s="25">
-        <v>-13.46</v>
+        <v>-13.24</v>
       </c>
       <c r="D236" s="25">
-        <v>5.08</v>
+        <v>4.6500000000000004</v>
       </c>
       <c r="E236" s="25">
-        <v>-2.54</v>
+        <v>-2.52</v>
       </c>
       <c r="F236" s="25">
-        <v>4.6500000000000004</v>
+        <v>4.68</v>
       </c>
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.2">
@@ -5170,19 +5170,19 @@
         <v>44184</v>
       </c>
       <c r="B237" s="25">
-        <v>95.5</v>
+        <v>95.4</v>
       </c>
       <c r="C237" s="25">
-        <v>-10.99</v>
+        <v>-11.36</v>
       </c>
       <c r="D237" s="25">
-        <v>3.32</v>
+        <v>2.82</v>
       </c>
       <c r="E237" s="25">
-        <v>-1.58</v>
+        <v>-1.56</v>
       </c>
       <c r="F237" s="25">
-        <v>-0.57999999999999996</v>
+        <v>-0.54</v>
       </c>
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.2">
@@ -5193,16 +5193,16 @@
         <v>95.2</v>
       </c>
       <c r="C238" s="25">
-        <v>-9.3699999999999992</v>
+        <v>-9.39</v>
       </c>
       <c r="D238" s="25">
-        <v>2.13</v>
+        <v>2.14</v>
       </c>
       <c r="E238" s="25">
-        <v>-8.6199999999999992</v>
+        <v>-8.6</v>
       </c>
       <c r="F238" s="25">
-        <v>-0.43</v>
+        <v>-0.39</v>
       </c>
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.2">
@@ -5210,19 +5210,19 @@
         <v>44251</v>
       </c>
       <c r="B239" s="25">
-        <v>94.7</v>
+        <v>94.8</v>
       </c>
       <c r="C239" s="25">
-        <v>-5.44</v>
+        <v>-5.4</v>
       </c>
       <c r="D239" s="25">
-        <v>-0.89</v>
+        <v>-0.75</v>
       </c>
       <c r="E239" s="25">
-        <v>-7.69</v>
+        <v>-7.68</v>
       </c>
       <c r="F239" s="25">
-        <v>-3.66</v>
+        <v>-3.62</v>
       </c>
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.2">
@@ -5233,16 +5233,16 @@
         <v>97.7</v>
       </c>
       <c r="C240" s="25">
-        <v>-0.39</v>
+        <v>-0.38</v>
       </c>
       <c r="D240" s="25">
-        <v>-0.84</v>
+        <v>-0.57999999999999996</v>
       </c>
       <c r="E240" s="25">
-        <v>-3.77</v>
+        <v>-3.76</v>
       </c>
       <c r="F240" s="25">
-        <v>4.07</v>
+        <v>4.1100000000000003</v>
       </c>
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.2">
@@ -5250,19 +5250,19 @@
         <v>44300</v>
       </c>
       <c r="B241" s="25">
-        <v>98.3</v>
+        <v>98.4</v>
       </c>
       <c r="C241" s="25">
-        <v>2.48</v>
+        <v>2.4900000000000002</v>
       </c>
       <c r="D241" s="25">
-        <v>0.99</v>
+        <v>1.32</v>
       </c>
       <c r="E241" s="25">
-        <v>0.17</v>
+        <v>0.24</v>
       </c>
       <c r="F241" s="25">
-        <v>3.94</v>
+        <v>4.1900000000000004</v>
       </c>
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.2">
@@ -5273,16 +5273,16 @@
         <v>100.2</v>
       </c>
       <c r="C242" s="25">
-        <v>4.13</v>
+        <v>4.17</v>
       </c>
       <c r="D242" s="25">
-        <v>2.85</v>
+        <v>3.11</v>
       </c>
       <c r="E242" s="25">
-        <v>3.44</v>
+        <v>3.41</v>
       </c>
       <c r="F242" s="25">
-        <v>9.2200000000000006</v>
+        <v>9.2100000000000009</v>
       </c>
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.2">
@@ -5290,19 +5290,19 @@
         <v>44350</v>
       </c>
       <c r="B243" s="25">
-        <v>103.8</v>
+        <v>103.6</v>
       </c>
       <c r="C243" s="25">
-        <v>8.94</v>
+        <v>8.93</v>
       </c>
       <c r="D243" s="25">
-        <v>4.7</v>
+        <v>4.99</v>
       </c>
       <c r="E243" s="25">
-        <v>7.54</v>
+        <v>7.37</v>
       </c>
       <c r="F243" s="25">
-        <v>19.079999999999998</v>
+        <v>18.52</v>
       </c>
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.2">
@@ -5313,16 +5313,16 @@
         <v>102.4</v>
       </c>
       <c r="C244" s="25">
-        <v>16.510000000000002</v>
+        <v>16.59</v>
       </c>
       <c r="D244" s="25">
-        <v>2.31</v>
+        <v>2.59</v>
       </c>
       <c r="E244" s="25">
-        <v>10.09</v>
+        <v>10.11</v>
       </c>
       <c r="F244" s="25">
-        <v>10.31</v>
+        <v>10.34</v>
       </c>
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.2">
@@ -5333,16 +5333,16 @@
         <v>103.6</v>
       </c>
       <c r="C245" s="25">
-        <v>14.72</v>
+        <v>14.46</v>
       </c>
       <c r="D245" s="25">
-        <v>5.96</v>
+        <v>5.94</v>
       </c>
       <c r="E245" s="25">
-        <v>7.98</v>
+        <v>8</v>
       </c>
       <c r="F245" s="25">
-        <v>15.93</v>
+        <v>15.96</v>
       </c>
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.2">
@@ -5353,39 +5353,76 @@
         <v>104.3</v>
       </c>
       <c r="C246" s="25">
-        <v>13.68</v>
+        <v>13.62</v>
       </c>
       <c r="D246" s="25">
-        <v>9.51</v>
+        <v>9.36</v>
       </c>
       <c r="E246" s="25">
-        <v>7.87</v>
+        <v>7.89</v>
       </c>
       <c r="F246" s="25">
-        <v>18.5</v>
+        <v>18.53</v>
       </c>
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A247" s="10">
         <v>44491</v>
       </c>
-      <c r="C247" s="24"/>
-      <c r="D247" s="25"/>
-      <c r="E247" s="25"/>
-      <c r="F247" s="25"/>
+      <c r="B247" s="22">
+        <v>103.7</v>
+      </c>
+      <c r="C247" s="24">
+        <v>13.5</v>
+      </c>
+      <c r="D247" s="25">
+        <v>7.5</v>
+      </c>
+      <c r="E247" s="25">
+        <v>9.11</v>
+      </c>
+      <c r="F247" s="25">
+        <v>16.010000000000002</v>
+      </c>
     </row>
     <row r="248" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A248" s="10">
         <v>44520</v>
       </c>
-      <c r="C248" s="24"/>
-      <c r="D248" s="25"/>
-      <c r="E248" s="25"/>
-      <c r="F248" s="25"/>
+      <c r="B248" s="22">
+        <v>103.9</v>
+      </c>
+      <c r="C248" s="24">
+        <v>14.71</v>
+      </c>
+      <c r="D248" s="25">
+        <v>14.5</v>
+      </c>
+      <c r="E248" s="25">
+        <v>8.48</v>
+      </c>
+      <c r="F248" s="25">
+        <v>15.68</v>
+      </c>
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A249" s="10">
         <v>44549</v>
+      </c>
+      <c r="B249" s="22">
+        <v>102.9</v>
+      </c>
+      <c r="C249" s="24">
+        <v>16.53</v>
+      </c>
+      <c r="D249" s="25">
+        <v>9.5399999999999991</v>
+      </c>
+      <c r="E249" s="25">
+        <v>6.44</v>
+      </c>
+      <c r="F249" s="25">
+        <v>12.46</v>
       </c>
     </row>
   </sheetData>
